--- a/public/assets/images/format-hours.xlsx
+++ b/public/assets/images/format-hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -28,16 +28,25 @@
     <t xml:space="preserve">Date(dd-mm-yyyy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Start time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Time</t>
+    <t xml:space="preserve">Attendance Start Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendance End Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Type ( C = community, G = global)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity ID</t>
   </si>
   <si>
     <t xml:space="preserve">demo@email.com</t>
   </si>
   <si>
     <t xml:space="preserve">02-09-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -114,13 +123,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,47 +157,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="39.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.600694444444444</v>
+      <c r="D2" s="2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/images/format-hours.xlsx
+++ b/public/assets/images/format-hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -28,16 +28,13 @@
     <t xml:space="preserve">Date(dd-mm-yyyy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Attendance Start Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attendance End Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Type ( C = community, G = global)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity ID</t>
+    <t xml:space="preserve">Start Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment( Work )</t>
   </si>
   <si>
     <t xml:space="preserve">demo@email.com</t>
@@ -46,7 +43,7 @@
     <t xml:space="preserve">02-09-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">Helping administration work</t>
   </si>
 </sst>
 </file>
@@ -123,7 +120,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,10 +130,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -168,9 +161,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="39.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="6" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -189,16 +183,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0.416666666666667</v>
@@ -206,11 +197,8 @@
       <c r="D2" s="2" t="n">
         <v>0.625</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
